--- a/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841850_same_pivot.xlsx
+++ b/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841850_same_pivot.xlsx
@@ -20,13 +20,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="86">
   <si>
     <t>month</t>
   </si>
@@ -540,13 +540,13 @@
     <t>sqrt</t>
   </si>
   <si>
-    <t>Average of value</t>
-  </si>
-  <si>
     <t>Column Labels</t>
   </si>
   <si>
     <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Min of value</t>
   </si>
 </sst>
 </file>
@@ -6644,33 +6644,33 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:J27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:K8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="21"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="20"/>
+        <item h="1" x="19"/>
+        <item h="1" x="21"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6694,34 +6694,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="22">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="9"/>
     </i>
@@ -6730,36 +6703,6 @@
     </i>
     <i>
       <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
     </i>
   </rowItems>
   <colFields count="2">
@@ -6799,10 +6742,10 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of value" fld="2" subtotal="average" baseField="0" baseItem="598694800"/>
+    <dataField name="Min of value" fld="2" subtotal="min" baseField="0" baseItem="9"/>
   </dataFields>
   <conditionalFormats count="2">
-    <conditionalFormat priority="1">
+    <conditionalFormat type="all" priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -6837,7 +6780,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat type="all" priority="2">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -13608,782 +13551,176 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J27"/>
+  <dimension ref="B3:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="10" width="7" customWidth="1"/>
-    <col min="11" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" customWidth="1"/>
+    <col min="10" max="11" width="6" customWidth="1"/>
+    <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
       <c r="C5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.88159999999999994</v>
+        <v>75</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C6" s="2">
-        <v>0.86020000000000008</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="D6" s="2">
-        <v>0.86280000000000001</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E6" s="2">
-        <v>0.81820000000000004</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="F6" s="2">
-        <v>0.80520000000000014</v>
+        <v>0.9</v>
       </c>
       <c r="G6" s="2">
-        <v>0.80720000000000014</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="H6" s="2">
-        <v>0.86159999999999992</v>
+        <v>0.875</v>
       </c>
       <c r="I6" s="2">
-        <v>0.86380000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="J6" s="2">
-        <v>0.8600000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.89879999999999993</v>
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>0.89699999999999991</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="D7" s="2">
-        <v>0.89739999999999998</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E7" s="2">
-        <v>0.82699999999999996</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="F7" s="2">
-        <v>0.82159999999999989</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="G7" s="2">
-        <v>0.81720000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="H7" s="2">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H8" s="2">
         <v>0.88100000000000001</v>
       </c>
-      <c r="I7" s="2">
-        <v>0.87260000000000004</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.88080000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.90740000000000021</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.8405999999999999</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="K8" s="2">
         <v>0.89700000000000002</v>
       </c>
-      <c r="I8" s="2">
-        <v>0.88579999999999992</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.88640000000000008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.90680000000000016</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.9012</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.9022</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.877</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.88339999999999996</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.88000000000000012</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.90560000000000007</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.90139999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.9151999999999999</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.9022</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.91020000000000001</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.87420000000000009</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.874</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.87240000000000006</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.90019999999999989</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.89639999999999986</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.91479999999999995</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.90060000000000007</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.90460000000000007</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.86820000000000008</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.86240000000000006</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.90400000000000014</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.9012</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.8972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.89139999999999997</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.8822000000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.88780000000000003</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.83219999999999994</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.83240000000000003</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.87459999999999982</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.8607999999999999</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.86619999999999986</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.90139999999999998</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.8952</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.89440000000000008</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.85220000000000007</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.84759999999999991</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.83919999999999995</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.87260000000000004</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.87019999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.91679999999999995</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.91099999999999992</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.87080000000000002</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.86839999999999995</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.86280000000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.89139999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.93160000000000009</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.94219999999999993</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.90659999999999985</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.90760000000000007</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.88819999999999999</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.92480000000000007</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.91720000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.93740000000000001</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.94279999999999986</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.94340000000000013</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.90420000000000011</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.9052</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.89860000000000007</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.93120000000000014</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.92780000000000007</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.92700000000000016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.90180000000000005</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.91320000000000012</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.90639999999999998</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.90520000000000012</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.89480000000000004</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.88719999999999999</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.90060000000000007</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.89419999999999999</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.88939999999999997</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.88739999999999986</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.85440000000000005</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.85440000000000005</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.85140000000000016</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.88719999999999999</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.88939999999999997</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.8832000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.81640000000000001</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.87819999999999998</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.86060000000000003</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.84840000000000004</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.85739999999999994</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.86319999999999997</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.85880000000000012</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.84800000000000009</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.83420000000000005</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.83739999999999992</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.87680000000000002</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.87899999999999989</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.876</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.86460000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.75739999999999996</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.76859999999999995</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.87180000000000002</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.85660000000000003</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.85820000000000007</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.84119999999999995</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.83619999999999983</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.8375999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.80460000000000009</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.80959999999999999</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.874</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.86820000000000008</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.86240000000000006</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.85719999999999996</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.86459999999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.87880000000000003</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.86820000000000008</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.86760000000000004</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.8952</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.88760000000000017</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.88840000000000008</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.90200000000000014</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.8869999999999999</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.88019999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.82420000000000004</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.82539999999999991</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.85499999999999987</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.88179999999999992</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.88860000000000006</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.85600000000000009</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.88019999999999998</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.88339999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.89559999999999995</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.89980000000000016</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.89500000000000013</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0.90280000000000005</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0.90700000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.88740000000000008</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.89500000000000013</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.88819999999999999</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.87000000000000011</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.86919999999999997</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.88439999999999996</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.88159999999999994</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.87780000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.78220000000000001</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.80120000000000002</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.79540000000000011</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.88519999999999999</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.90579999999999994</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.90060000000000007</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.87660000000000005</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.88120000000000009</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.87899999999999989</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B6:J27">
+  <conditionalFormatting pivot="1" sqref="C6:K8">
     <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B6:J27">
+  <conditionalFormatting pivot="1" sqref="C6:K8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
